--- a/sofaplayer/Ligue_1/RC Strasbourg_stats.xlsx
+++ b/sofaplayer/Ligue_1/RC Strasbourg_stats.xlsx
@@ -1035,7 +1035,7 @@
         <v>1410925</v>
       </c>
       <c r="E2" t="n">
-        <v>6.85</v>
+        <v>6.8727272727273</v>
       </c>
       <c r="F2" t="n">
         <v>22</v>
@@ -1053,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>11.8649</v>
+        <v>11.9217</v>
       </c>
       <c r="L2" t="n">
         <v>154.5</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.26654433</v>
+        <v>1.26654423</v>
       </c>
       <c r="AB2" t="n">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
         <v>17</v>
@@ -1179,16 +1179,16 @@
         <v>39.285714285714</v>
       </c>
       <c r="BA2" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BB2" t="n">
-        <v>46.468401486989</v>
+        <v>46.268656716418</v>
       </c>
       <c r="BC2" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BD2" t="n">
-        <v>47.586206896552</v>
+        <v>47.222222222222</v>
       </c>
       <c r="BE2" t="n">
         <v>56</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>150.7</v>
+        <v>151.2</v>
       </c>
       <c r="BR2" t="n">
         <v>22</v>
@@ -1338,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="DB2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>1090458</v>
       </c>
       <c r="E4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="BR4" t="n">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>1142233</v>
       </c>
       <c r="E5" t="n">
-        <v>6.9428571428571</v>
+        <v>6.9285714285714</v>
       </c>
       <c r="F5" t="n">
         <v>21</v>
@@ -2167,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.41002178</v>
+        <v>3.33320078</v>
       </c>
       <c r="AB5" t="n">
         <v>1213</v>
@@ -2197,10 +2197,10 @@
         <v>180</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>54.901960784314</v>
+        <v>54</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -2230,7 +2230,7 @@
         <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>145.8</v>
+        <v>145.5</v>
       </c>
       <c r="BR5" t="n">
         <v>21</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="DA5" t="n">
         <v>19</v>
@@ -2457,7 +2457,7 @@
         <v>1190938</v>
       </c>
       <c r="E6" t="n">
-        <v>6.7588235294118</v>
+        <v>6.7647058823529</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
@@ -2475,7 +2475,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8985</v>
+        <v>4.9282</v>
       </c>
       <c r="L6" t="n">
         <v>137</v>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.88237532</v>
+        <v>0.88237632</v>
       </c>
       <c r="AB6" t="n">
         <v>391</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>114.9</v>
+        <v>115</v>
       </c>
       <c r="BR6" t="n">
         <v>17</v>
@@ -2813,7 +2813,7 @@
         <v>973556</v>
       </c>
       <c r="E7" t="n">
-        <v>7.02</v>
+        <v>7.0133333333333</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
@@ -2879,10 +2879,10 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.52278293</v>
+        <v>2.41667493</v>
       </c>
       <c r="AB7" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC7" t="n">
         <v>2</v>
@@ -2891,10 +2891,10 @@
         <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF7" t="n">
-        <v>85.224274406332</v>
+        <v>85.488126649077</v>
       </c>
       <c r="AG7" t="n">
         <v>379</v>
@@ -2903,10 +2903,10 @@
         <v>136</v>
       </c>
       <c r="AI7" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AJ7" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK7" t="n">
         <v>6</v>
@@ -2915,10 +2915,10 @@
         <v>66.666666666667</v>
       </c>
       <c r="AM7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>42.307692307692</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
         <v>2</v>
@@ -2975,7 +2975,7 @@
         <v>57.142857142857</v>
       </c>
       <c r="BG7" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BH7" t="n">
         <v>8</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="BR7" t="n">
         <v>15</v>
@@ -3014,7 +3014,7 @@
         <v>3</v>
       </c>
       <c r="BT7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>21</v>
       </c>
       <c r="CC7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CD7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>55</v>
       </c>
       <c r="CT7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CU7" t="n">
         <v>62</v>
@@ -3169,7 +3169,7 @@
         <v>1127057</v>
       </c>
       <c r="E8" t="n">
-        <v>7.2</v>
+        <v>7.2157894736842</v>
       </c>
       <c r="F8" t="n">
         <v>19</v>
@@ -3235,10 +3235,10 @@
         <v>4</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.44785833</v>
+        <v>5.44785933</v>
       </c>
       <c r="AB8" t="n">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -3280,7 +3280,7 @@
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AQ8" t="n">
         <v>10</v>
@@ -3289,7 +3289,7 @@
         <v>102</v>
       </c>
       <c r="AS8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT8" t="n">
         <v>10</v>
@@ -3313,16 +3313,16 @@
         <v>40.425531914894</v>
       </c>
       <c r="BA8" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BB8" t="n">
-        <v>58.549222797927</v>
+        <v>59.067357512953</v>
       </c>
       <c r="BC8" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BD8" t="n">
-        <v>59.217877094972</v>
+        <v>59.776536312849</v>
       </c>
       <c r="BE8" t="n">
         <v>7</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>136.8</v>
+        <v>137.1</v>
       </c>
       <c r="BR8" t="n">
         <v>19</v>
@@ -3451,7 +3451,7 @@
         <v>76</v>
       </c>
       <c r="CU8" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CV8" t="n">
         <v>7</v>
@@ -3469,10 +3469,10 @@
         <v>81</v>
       </c>
       <c r="DA8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="DB8" t="n">
-        <v>64.102564102564</v>
+        <v>60</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>1638338</v>
       </c>
       <c r="E9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="BR9" t="n">
         <v>2</v>
@@ -4255,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>1.6544</v>
+        <v>1.6664</v>
       </c>
       <c r="L11" t="n">
         <v>131.66666666667</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.53680174</v>
+        <v>0.53680182</v>
       </c>
       <c r="AB11" t="n">
         <v>223</v>
@@ -4593,7 +4593,7 @@
         <v>1605921</v>
       </c>
       <c r="E12" t="n">
-        <v>6.8681818181818</v>
+        <v>6.8636363636364</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
@@ -4674,10 +4674,10 @@
         <v>809</v>
       </c>
       <c r="AF12" t="n">
-        <v>90.593505039194</v>
+        <v>90.492170022371</v>
       </c>
       <c r="AG12" t="n">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AH12" t="n">
         <v>474</v>
@@ -4698,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>151.1</v>
+        <v>151</v>
       </c>
       <c r="BR12" t="n">
         <v>22</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>15</v>
       </c>
       <c r="CC12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CD12" t="n">
         <v>23</v>
@@ -4872,7 +4872,7 @@
         <v>20</v>
       </c>
       <c r="CT12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CU12" t="n">
         <v>60</v>
@@ -4911,7 +4911,7 @@
         <v>494</v>
       </c>
       <c r="DG12" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>1930811</v>
       </c>
       <c r="E14" t="n">
-        <v>6.6388888888889</v>
+        <v>6.65</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>119.5</v>
+        <v>119.7</v>
       </c>
       <c r="BR14" t="n">
         <v>18</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0468</v>
+        <v>0.0471</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -6842,7 +6842,7 @@
         <v>3</v>
       </c>
       <c r="AR18" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AS18" t="n">
         <v>14</v>
@@ -7081,7 +7081,7 @@
         <v>1002033</v>
       </c>
       <c r="E19" t="n">
-        <v>6.8375</v>
+        <v>6.85</v>
       </c>
       <c r="F19" t="n">
         <v>16</v>
@@ -7147,10 +7147,10 @@
         <v>5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.37984823</v>
+        <v>1.37979803</v>
       </c>
       <c r="AB19" t="n">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="AC19" t="n">
         <v>3</v>
@@ -7159,19 +7159,19 @@
         <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AF19" t="n">
-        <v>86.131386861314</v>
+        <v>86.14823815309801</v>
       </c>
       <c r="AG19" t="n">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AH19" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AI19" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AJ19" t="n">
         <v>120</v>
@@ -7219,22 +7219,22 @@
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>58.333333333333</v>
+        <v>60</v>
       </c>
       <c r="BA19" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB19" t="n">
-        <v>52.972972972973</v>
+        <v>53.513513513514</v>
       </c>
       <c r="BC19" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BD19" t="n">
-        <v>45.864661654135</v>
+        <v>46.616541353383</v>
       </c>
       <c r="BE19" t="n">
         <v>37</v>
@@ -7243,7 +7243,7 @@
         <v>71.153846153846</v>
       </c>
       <c r="BG19" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BH19" t="n">
         <v>31</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>109.4</v>
+        <v>109.6</v>
       </c>
       <c r="BR19" t="n">
         <v>16</v>
@@ -7306,7 +7306,7 @@
         <v>1</v>
       </c>
       <c r="CB19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CC19" t="n">
         <v>40</v>
@@ -7357,13 +7357,13 @@
         <v>11</v>
       </c>
       <c r="CS19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CT19" t="n">
         <v>37</v>
       </c>
       <c r="CU19" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CV19" t="n">
         <v>15</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="DG19" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="DH19" t="n">
         <v>2</v>
@@ -7437,7 +7437,7 @@
         <v>1426597</v>
       </c>
       <c r="E20" t="n">
-        <v>6.6857142857143</v>
+        <v>6.6928571428571</v>
       </c>
       <c r="F20" t="n">
         <v>14</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3966</v>
+        <v>0.2514</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.46096271</v>
+        <v>0.46096282</v>
       </c>
       <c r="AB20" t="n">
         <v>936</v>
@@ -7533,10 +7533,10 @@
         <v>47</v>
       </c>
       <c r="AK20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>51.020408163265</v>
+        <v>52</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="BR20" t="n">
         <v>14</v>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="DA20" t="n">
         <v>8</v>
@@ -8149,7 +8149,7 @@
         <v>983066</v>
       </c>
       <c r="E22" t="n">
-        <v>6.6714285714286</v>
+        <v>6.6785714285714</v>
       </c>
       <c r="F22" t="n">
         <v>14</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05719335</v>
+        <v>0.05598286</v>
       </c>
       <c r="AB22" t="n">
         <v>582</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AF22" t="n">
-        <v>97.27626459144</v>
+        <v>97.081712062257</v>
       </c>
       <c r="AG22" t="n">
         <v>514</v>
@@ -8239,10 +8239,10 @@
         <v>393</v>
       </c>
       <c r="AI22" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
@@ -8311,7 +8311,7 @@
         <v>80</v>
       </c>
       <c r="BG22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BH22" t="n">
         <v>6</v>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="BR22" t="n">
         <v>14</v>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8505,7 +8505,7 @@
         <v>1149148</v>
       </c>
       <c r="E23" t="n">
-        <v>6.9571428571429</v>
+        <v>6.952380952381</v>
       </c>
       <c r="F23" t="n">
         <v>21</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>2</v>
       </c>
       <c r="AW23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX23" t="n">
         <v>1</v>
@@ -8695,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="BQ23" t="n">
-        <v>146.1</v>
+        <v>146</v>
       </c>
       <c r="BR23" t="n">
         <v>21</v>
@@ -8761,10 +8761,10 @@
         <v>3</v>
       </c>
       <c r="CM23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CO23" t="n">
         <v>14</v>
@@ -8838,7 +8838,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>0.9883999999999999</v>
+        <v>1.5423</v>
       </c>
     </row>
     <row r="24">
